--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,34 +49,40 @@
     <t>die</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>shit</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>selfish</t>
   </si>
   <si>
     <t>drop</t>
@@ -91,36 +97,42 @@
     <t>avoid</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
@@ -133,40 +145,40 @@
     <t>hand</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>special</t>
+    <t>giving</t>
   </si>
   <si>
     <t>fresh</t>
@@ -178,37 +190,55 @@
     <t>like</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>sure</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -566,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -685,38 +715,38 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="L4">
         <v>32</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>32</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="L4">
-        <v>116</v>
-      </c>
-      <c r="M4">
-        <v>116</v>
-      </c>
       <c r="N4">
         <v>1</v>
       </c>
@@ -727,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.918918918918919</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.8698630136986302</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -835,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8698630136986302</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.9190600522193212</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L7">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,16 +936,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.9148936170212766</v>
+        <v>0.9268929503916449</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -985,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8235294117647058</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.8984375</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1035,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7655038759689923</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C11">
-        <v>395</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>395</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.8962264150943396</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1115,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.775</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.8943661971830986</v>
+        <v>0.89375</v>
       </c>
       <c r="L12">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="M12">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7435897435897436</v>
+        <v>0.7577519379844961</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>391</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>391</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>0.8928571428571429</v>
@@ -1185,13 +1215,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7301587301587301</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C14">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.8875</v>
+        <v>0.890625</v>
       </c>
       <c r="L14">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,13 +1265,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.717948717948718</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.8658536585365854</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L15">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M15">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1315,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.711864406779661</v>
+        <v>0.7248677248677249</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,13 +1365,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7027027027027027</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1356,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K17">
         <v>0.8611111111111112</v>
@@ -1385,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6644295302013423</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C18">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1403,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.8095238095238095</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L18">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1435,13 +1465,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1453,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.8055555555555556</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1477,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1485,13 +1515,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5600000000000001</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="C20">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D20">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1503,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1527,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1535,13 +1565,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5454545454545454</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1553,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.78</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1577,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1585,13 +1615,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5178571428571429</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1603,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.7764705882352941</v>
+        <v>0.78</v>
       </c>
       <c r="L22">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1627,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1635,7 +1665,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4025974025974026</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C23">
         <v>31</v>
@@ -1653,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.7559322033898305</v>
+        <v>0.7794117647058824</v>
       </c>
       <c r="L23">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="M23">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1677,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1685,13 +1715,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3875</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D24">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1703,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.7450980392156863</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1727,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1735,13 +1765,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1753,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.7405857740585774</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L25">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1777,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1785,13 +1815,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3293650793650794</v>
+        <v>0.376984126984127</v>
       </c>
       <c r="C26">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D26">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1803,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>0.7191011235955056</v>
+        <v>0.7489539748953975</v>
       </c>
       <c r="L26">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="M26">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1827,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1835,13 +1865,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1581769436997319</v>
+        <v>0.35</v>
       </c>
       <c r="C27">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1853,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>314</v>
+        <v>52</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.7127659574468085</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L27">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1877,21 +1907,45 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.3376623376623377</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>51</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.6923076923076923</v>
+        <v>0.7448979591836735</v>
       </c>
       <c r="L28">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="M28">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1900,24 +1954,48 @@
         <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.2117962466487936</v>
+      </c>
+      <c r="C29">
+        <v>79</v>
+      </c>
+      <c r="D29">
+        <v>79</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>294</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K29">
-        <v>0.675</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1929,21 +2007,45 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>275</v>
+      </c>
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K30">
-        <v>0.6428571428571429</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M30">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1955,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K31">
-        <v>0.5753424657534246</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="L31">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1981,21 +2083,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K32">
-        <v>0.5128205128205128</v>
+        <v>0.7</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2007,32 +2109,214 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K33">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="L33">
+        <v>46</v>
+      </c>
+      <c r="M33">
+        <v>46</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34">
+        <v>0.5952380952380952</v>
+      </c>
+      <c r="L34">
+        <v>25</v>
+      </c>
+      <c r="M34">
+        <v>25</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35">
+        <v>0.589041095890411</v>
+      </c>
+      <c r="L35">
+        <v>43</v>
+      </c>
+      <c r="M35">
+        <v>43</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="L36">
+        <v>40</v>
+      </c>
+      <c r="M36">
+        <v>40</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37">
+        <v>0.4912280701754386</v>
+      </c>
+      <c r="L37">
+        <v>28</v>
+      </c>
+      <c r="M37">
+        <v>28</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38">
         <v>0.46875</v>
       </c>
-      <c r="L33">
+      <c r="L38">
         <v>30</v>
       </c>
-      <c r="M33">
+      <c r="M38">
         <v>30</v>
       </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39">
+        <v>0.4426229508196721</v>
+      </c>
+      <c r="L39">
+        <v>27</v>
+      </c>
+      <c r="M39">
+        <v>27</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40">
+        <v>0.423728813559322</v>
+      </c>
+      <c r="L40">
+        <v>25</v>
+      </c>
+      <c r="M40">
+        <v>25</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>34</v>
       </c>
     </row>
